--- a/hoenn isles/Documentation.xlsx
+++ b/hoenn isles/Documentation.xlsx
@@ -125,9 +125,6 @@
     <t>It should look something like "#define TYPE_AUDIO 0x12". The name and number must match what was entered into type_constants.inc</t>
   </si>
   <si>
-    <t>This is a theory and needs to be tested and verified - especially regarding misc.mk/graphics etc</t>
-  </si>
-  <si>
     <t>Open misc.mk in the root folder and find the line beginning with "types := "</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>It should match the name of the graphic files - in this example "audio" would be added to the list</t>
   </si>
   <si>
-    <t>Add the type's .png icon file to graphics/types - call them something like "audio.png"</t>
-  </si>
-  <si>
     <t>It should use colours from just one of the move_types palettes</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>It should look something like ".string "AUDIO$", 7". The 7 at the end is for string length and should always be 7</t>
+  </si>
+  <si>
+    <t>Add the types .png icon file to graphics/types - call them something like "audio.png"</t>
+  </si>
+  <si>
+    <t>This theory is mostly confirmed, though there was unresolved palette issues when adding the new icon</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,12 +677,12 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,12 +698,12 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,12 +724,12 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/hoenn isles/Documentation.xlsx
+++ b/hoenn isles/Documentation.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="2" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
-    <sheet name="Adding new types" sheetId="4" r:id="rId2"/>
-    <sheet name="Adding new items" sheetId="2" r:id="rId3"/>
-    <sheet name="Type boosting item effects" sheetId="3" r:id="rId4"/>
+    <sheet name="Pokemon name lengths" sheetId="5" r:id="rId2"/>
+    <sheet name="Keyboard layout" sheetId="6" r:id="rId3"/>
+    <sheet name="Adding new types" sheetId="4" r:id="rId4"/>
+    <sheet name="Adding new items" sheetId="2" r:id="rId5"/>
+    <sheet name="Type boosting item effects" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Engine/field</t>
   </si>
@@ -150,6 +152,63 @@
   </si>
   <si>
     <t>This theory is mostly confirmed, though there was unresolved palette issues when adding the new icon</t>
+  </si>
+  <si>
+    <t>Open constants/misc_constants.inc and find "POKEMON_NAME_LENGTH"</t>
+  </si>
+  <si>
+    <t>This value needs to be set to the desired max value + 1 - so 15 in this case</t>
+  </si>
+  <si>
+    <t>Open data/text/species_names.inc and replace every number at the end of each species name with the max name length + 1 (should be 15 again here)</t>
+  </si>
+  <si>
+    <t>Open include/data2a.h and find "gSpeciesNames"</t>
+  </si>
+  <si>
+    <t>Change the array length to the new max name length + 1 (15 again here)</t>
+  </si>
+  <si>
+    <t>Expanding the number of characters that can be used in a Pokemon's name from 10 to a higher number. The new limit will be 14 for this guide</t>
+  </si>
+  <si>
+    <t>Open src/engine/naming_screen.c and find "static const struct NamingScreenTemplate monNamingScreenTemplate"</t>
+  </si>
+  <si>
+    <t>In this struct, change .maxChars value to the new max name length (14 here)</t>
+  </si>
+  <si>
+    <t>This guide is unfinished - though what has been written so far has been tested and verified to work</t>
+  </si>
+  <si>
+    <t>At this point, Pokemon species names and the naming screen GUI are expanded but a Pokemon's nickname isn't</t>
+  </si>
+  <si>
+    <t>To complete this guide, a Pokemon's nickname must be expanded to include the new characters</t>
+  </si>
+  <si>
+    <t>Be aware that this technique will likely mess up vanilla GUIs - redesigning will need to take place</t>
+  </si>
+  <si>
+    <t>Open src/engine/naming_screen.c and find "sKeyboardCharacters"</t>
+  </si>
+  <si>
+    <t>Edit the characters on the keyboard</t>
+  </si>
+  <si>
+    <t>In vanilla, the array is defined as 20 characters across (including spaces) and 4 characters high</t>
+  </si>
+  <si>
+    <t>Find "sKeyboardSymbolPositions" in naming_screen.c</t>
+  </si>
+  <si>
+    <t>Add the columns where the letters are to the array. It should be pretty self explainatory</t>
+  </si>
+  <si>
+    <t>This guide can be followed to add other keyboard layouts to the game</t>
+  </si>
+  <si>
+    <t>This guide is incomplete - the process of programming the new columns and switching between keyboards using the options menu need to be added</t>
   </si>
 </sst>
 </file>
@@ -589,13 +648,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2EC55-06AF-4BE5-A0E3-4B3461F30ACC}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A8AA36-BC50-4022-86EA-6A6D271A741C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387D18C2-88E9-460D-91F5-B06AC36AC420}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -737,7 +967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827A1328-CE96-433C-BECC-3FC3AF56DC20}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -817,7 +1047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7060F957-C2AB-4090-BA0D-BB4FEF3EE732}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>

--- a/hoenn isles/Documentation.xlsx
+++ b/hoenn isles/Documentation.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="2" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
     <sheet name="Pokemon name lengths" sheetId="5" r:id="rId2"/>
     <sheet name="Keyboard layout" sheetId="6" r:id="rId3"/>
-    <sheet name="Adding new types" sheetId="4" r:id="rId4"/>
-    <sheet name="Adding new items" sheetId="2" r:id="rId5"/>
-    <sheet name="Type boosting item effects" sheetId="3" r:id="rId6"/>
+    <sheet name="Adding new evolution methods" sheetId="7" r:id="rId4"/>
+    <sheet name="Adding new types" sheetId="4" r:id="rId5"/>
+    <sheet name="Adding new items" sheetId="2" r:id="rId6"/>
+    <sheet name="Type boosting item effects" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>Engine/field</t>
   </si>
@@ -209,6 +210,57 @@
   </si>
   <si>
     <t>This guide is incomplete - the process of programming the new columns and switching between keyboards using the options menu need to be added</t>
+  </si>
+  <si>
+    <t>Adding new methods to evolve Pokemon</t>
+  </si>
+  <si>
+    <t>Open /constants/pokemon_data_constants.inc</t>
+  </si>
+  <si>
+    <t>Find the section that contains evolution methods</t>
+  </si>
+  <si>
+    <t>An example entry would be ".set EVO_LEVEL_SPATK_GT_SPDEF, 0x0010"</t>
+  </si>
+  <si>
+    <t>Open /include/pokemon.h and find where evolution methods are defined</t>
+  </si>
+  <si>
+    <t>Each entry should begin with ".set EVO_"</t>
+  </si>
+  <si>
+    <t>Add the new method to the table. It needs a unique hex number</t>
+  </si>
+  <si>
+    <t>Each entry should begin with "#define EVO_"</t>
+  </si>
+  <si>
+    <t>Add the new entries to the table</t>
+  </si>
+  <si>
+    <t>The new entry should use the same name and hex number as the entry in pokemon_data_constructs.inc</t>
+  </si>
+  <si>
+    <t>Open /src/pokemon/pokemon_3.c and find the switch table for evolution methods</t>
+  </si>
+  <si>
+    <t>This is where actual evolution behaviour is defined in a series of cases</t>
+  </si>
+  <si>
+    <t>Add the new evolution behaviour to the table</t>
+  </si>
+  <si>
+    <t>Evolution behaviours should be in the same order as the other tables in pokemon_data_constants.inc and pokemon.h</t>
+  </si>
+  <si>
+    <t>This theory has been tested and seemingly works - additional testing is required to be absolutely sure</t>
+  </si>
+  <si>
+    <t>Finally, open /src/data/pokemon/evolution.h and add any new evolutions with the behaviour to the table</t>
+  </si>
+  <si>
+    <t>Add other things such as declarations and includes that may be required (like evolve with status condition, for example)</t>
   </si>
 </sst>
 </file>
@@ -757,7 +809,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -819,6 +871,140 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D46F58-6CC2-4025-8379-720D739D6968}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387D18C2-88E9-460D-91F5-B06AC36AC420}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -967,7 +1153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827A1328-CE96-433C-BECC-3FC3AF56DC20}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -1047,7 +1233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7060F957-C2AB-4090-BA0D-BB4FEF3EE732}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>

--- a/hoenn isles/Documentation.xlsx
+++ b/hoenn isles/Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="2" activeTab="6" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -877,7 +877,7 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/hoenn isles/Documentation.xlsx
+++ b/hoenn isles/Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="2" activeTab="6" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="2" activeTab="4" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1240,7 +1240,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/hoenn isles/Documentation.xlsx
+++ b/hoenn isles/Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="2" activeTab="4" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="2" activeTab="6" xr2:uid="{088997C0-4E52-4395-A26A-BD7124426C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>This is a theory and needs to be tested and verified</t>
   </si>
   <si>
-    <t>Open src/pokemon/pokemon_data.c</t>
-  </si>
-  <si>
     <t>Find the structure "gHoldEffectToType"</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>Add other things such as declarations and includes that may be required (like evolve with status condition, for example)</t>
+  </si>
+  <si>
+    <t>Open src/battle/calculate_base_damage.c</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -685,13 +685,13 @@
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -717,17 +717,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,17 +783,17 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -820,12 +820,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,12 +841,12 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -888,12 +888,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,12 +909,12 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,12 +922,12 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,12 +935,12 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,12 +948,12 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,12 +961,12 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,12 +974,12 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1011,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1022,12 +1022,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,12 +1043,12 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,12 +1064,12 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,12 +1093,12 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,12 +1114,12 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,17 +1135,17 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1240,8 +1240,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,12 +1280,12 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,12 +1301,12 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,12 +1314,12 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
